--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Agt-Mas1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Agt-Mas1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Agt</t>
+  </si>
+  <si>
+    <t>Mas1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Agt</t>
-  </si>
-  <si>
-    <t>Mas1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.206928</v>
+        <v>1.551523333333333</v>
       </c>
       <c r="H2">
-        <v>0.620784</v>
+        <v>4.65457</v>
       </c>
       <c r="I2">
-        <v>0.1147830852558177</v>
+        <v>0.950716861801202</v>
       </c>
       <c r="J2">
-        <v>0.1147830852558177</v>
+        <v>0.950716861801202</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5607433333333334</v>
+        <v>0.4904653333333333</v>
       </c>
       <c r="N2">
-        <v>1.68223</v>
+        <v>1.471396</v>
       </c>
       <c r="O2">
-        <v>0.2268055303321708</v>
+        <v>0.1781312055994899</v>
       </c>
       <c r="P2">
-        <v>0.2268055303321708</v>
+        <v>0.1781312055994899</v>
       </c>
       <c r="Q2">
-        <v>0.11603349648</v>
+        <v>0.7609684088577776</v>
       </c>
       <c r="R2">
-        <v>1.04430146832</v>
+        <v>6.848715679719999</v>
       </c>
       <c r="S2">
-        <v>0.02603343852460852</v>
+        <v>0.1693523407764117</v>
       </c>
       <c r="T2">
-        <v>0.02603343852460852</v>
+        <v>0.1693523407764117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.206928</v>
+        <v>1.551523333333333</v>
       </c>
       <c r="H3">
-        <v>0.620784</v>
+        <v>4.65457</v>
       </c>
       <c r="I3">
-        <v>0.1147830852558177</v>
+        <v>0.950716861801202</v>
       </c>
       <c r="J3">
-        <v>0.1147830852558177</v>
+        <v>0.950716861801202</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.800077</v>
       </c>
       <c r="O3">
-        <v>0.5123428302242169</v>
+        <v>0.4600476672363475</v>
       </c>
       <c r="P3">
-        <v>0.5123428302242169</v>
+        <v>0.4600476672363475</v>
       </c>
       <c r="Q3">
-        <v>0.262114111152</v>
+        <v>1.965302711321111</v>
       </c>
       <c r="R3">
-        <v>2.359027000368</v>
+        <v>17.68772440189</v>
       </c>
       <c r="S3">
-        <v>0.05880829076183325</v>
+        <v>0.4373750744739039</v>
       </c>
       <c r="T3">
-        <v>0.05880829076183325</v>
+        <v>0.4373750744739039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.206928</v>
+        <v>1.551523333333333</v>
       </c>
       <c r="H4">
-        <v>0.620784</v>
+        <v>4.65457</v>
       </c>
       <c r="I4">
-        <v>0.1147830852558177</v>
+        <v>0.950716861801202</v>
       </c>
       <c r="J4">
-        <v>0.1147830852558177</v>
+        <v>0.950716861801202</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6449173333333332</v>
+        <v>0.996236</v>
       </c>
       <c r="N4">
-        <v>1.934752</v>
+        <v>2.988708</v>
       </c>
       <c r="O4">
-        <v>0.2608516394436123</v>
+        <v>0.3618211271641626</v>
       </c>
       <c r="P4">
-        <v>0.2608516394436123</v>
+        <v>0.3618211271641626</v>
       </c>
       <c r="Q4">
-        <v>0.133451453952</v>
+        <v>1.545683399506667</v>
       </c>
       <c r="R4">
-        <v>1.201063085568</v>
+        <v>13.91115059556</v>
       </c>
       <c r="S4">
-        <v>0.02994135596937599</v>
+        <v>0.3439894465508863</v>
       </c>
       <c r="T4">
-        <v>0.02994135596937599</v>
+        <v>0.3439894465508864</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.551523333333333</v>
+        <v>0.08042766666666666</v>
       </c>
       <c r="H5">
-        <v>4.65457</v>
+        <v>0.241283</v>
       </c>
       <c r="I5">
-        <v>0.8606309201576903</v>
+        <v>0.04928313819879805</v>
       </c>
       <c r="J5">
-        <v>0.8606309201576902</v>
+        <v>0.04928313819879804</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5607433333333334</v>
+        <v>0.4904653333333333</v>
       </c>
       <c r="N5">
-        <v>1.68223</v>
+        <v>1.471396</v>
       </c>
       <c r="O5">
-        <v>0.2268055303321708</v>
+        <v>0.1781312055994899</v>
       </c>
       <c r="P5">
-        <v>0.2268055303321708</v>
+        <v>0.1781312055994899</v>
       </c>
       <c r="Q5">
-        <v>0.8700063656777778</v>
+        <v>0.03944698234088889</v>
       </c>
       <c r="R5">
-        <v>7.8300572911</v>
+        <v>0.355022841068</v>
       </c>
       <c r="S5">
-        <v>0.1951958522666291</v>
+        <v>0.008778864823078169</v>
       </c>
       <c r="T5">
-        <v>0.195195852266629</v>
+        <v>0.008778864823078169</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.551523333333333</v>
+        <v>0.08042766666666666</v>
       </c>
       <c r="H6">
-        <v>4.65457</v>
+        <v>0.241283</v>
       </c>
       <c r="I6">
-        <v>0.8606309201576903</v>
+        <v>0.04928313819879805</v>
       </c>
       <c r="J6">
-        <v>0.8606309201576902</v>
+        <v>0.04928313819879804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.800077</v>
       </c>
       <c r="O6">
-        <v>0.5123428302242169</v>
+        <v>0.4600476672363475</v>
       </c>
       <c r="P6">
-        <v>0.5123428302242169</v>
+        <v>0.4600476672363475</v>
       </c>
       <c r="Q6">
-        <v>1.965302711321111</v>
+        <v>0.1018771087545556</v>
       </c>
       <c r="R6">
-        <v>17.68772440189</v>
+        <v>0.916893978791</v>
       </c>
       <c r="S6">
-        <v>0.4409380814120631</v>
+        <v>0.02267259276244357</v>
       </c>
       <c r="T6">
-        <v>0.440938081412063</v>
+        <v>0.02267259276244357</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.551523333333333</v>
+        <v>0.08042766666666666</v>
       </c>
       <c r="H7">
-        <v>4.65457</v>
+        <v>0.241283</v>
       </c>
       <c r="I7">
-        <v>0.8606309201576903</v>
+        <v>0.04928313819879805</v>
       </c>
       <c r="J7">
-        <v>0.8606309201576902</v>
+        <v>0.04928313819879804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6449173333333332</v>
+        <v>0.996236</v>
       </c>
       <c r="N7">
-        <v>1.934752</v>
+        <v>2.988708</v>
       </c>
       <c r="O7">
-        <v>0.2608516394436123</v>
+        <v>0.3618211271641626</v>
       </c>
       <c r="P7">
-        <v>0.2608516394436123</v>
+        <v>0.3618211271641626</v>
       </c>
       <c r="Q7">
-        <v>1.000604290737777</v>
+        <v>0.08012493692933333</v>
       </c>
       <c r="R7">
-        <v>9.005438616639998</v>
+        <v>0.7211244323639999</v>
       </c>
       <c r="S7">
-        <v>0.2244969864789981</v>
+        <v>0.01783168061327631</v>
       </c>
       <c r="T7">
-        <v>0.2244969864789981</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.044323</v>
-      </c>
-      <c r="H8">
-        <v>0.132969</v>
-      </c>
-      <c r="I8">
-        <v>0.02458599458649197</v>
-      </c>
-      <c r="J8">
-        <v>0.02458599458649197</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.5607433333333334</v>
-      </c>
-      <c r="N8">
-        <v>1.68223</v>
-      </c>
-      <c r="O8">
-        <v>0.2268055303321708</v>
-      </c>
-      <c r="P8">
-        <v>0.2268055303321708</v>
-      </c>
-      <c r="Q8">
-        <v>0.02485382676333334</v>
-      </c>
-      <c r="R8">
-        <v>0.22368444087</v>
-      </c>
-      <c r="S8">
-        <v>0.005576239540933191</v>
-      </c>
-      <c r="T8">
-        <v>0.005576239540933191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.044323</v>
-      </c>
-      <c r="H9">
-        <v>0.132969</v>
-      </c>
-      <c r="I9">
-        <v>0.02458599458649197</v>
-      </c>
-      <c r="J9">
-        <v>0.02458599458649197</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.266692333333333</v>
-      </c>
-      <c r="N9">
-        <v>3.800077</v>
-      </c>
-      <c r="O9">
-        <v>0.5123428302242169</v>
-      </c>
-      <c r="P9">
-        <v>0.5123428302242169</v>
-      </c>
-      <c r="Q9">
-        <v>0.05614360429033333</v>
-      </c>
-      <c r="R9">
-        <v>0.505292438613</v>
-      </c>
-      <c r="S9">
-        <v>0.01259645805032057</v>
-      </c>
-      <c r="T9">
-        <v>0.01259645805032057</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.044323</v>
-      </c>
-      <c r="H10">
-        <v>0.132969</v>
-      </c>
-      <c r="I10">
-        <v>0.02458599458649197</v>
-      </c>
-      <c r="J10">
-        <v>0.02458599458649197</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.6449173333333332</v>
-      </c>
-      <c r="N10">
-        <v>1.934752</v>
-      </c>
-      <c r="O10">
-        <v>0.2608516394436123</v>
-      </c>
-      <c r="P10">
-        <v>0.2608516394436123</v>
-      </c>
-      <c r="Q10">
-        <v>0.02858467096533333</v>
-      </c>
-      <c r="R10">
-        <v>0.257262038688</v>
-      </c>
-      <c r="S10">
-        <v>0.006413296995238208</v>
-      </c>
-      <c r="T10">
-        <v>0.006413296995238208</v>
+        <v>0.01783168061327631</v>
       </c>
     </row>
   </sheetData>
